--- a/medicine/Psychotrope/Pierre_Bardou-Job/Pierre_Bardou-Job.xlsx
+++ b/medicine/Psychotrope/Pierre_Bardou-Job/Pierre_Bardou-Job.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pierre Bardou-Job, né Pierre Bardou le 17 août 1826 à Ille-sur-Têt (Pyrénées-Orientales) et mort le 24 février 1892 à Perpignan (Pyrénées-Orientales), est un industriel, propriétaire et homme politique français.
 </t>
@@ -511,16 +523,18 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Fils de Jean Bardou, Pierre Bardou donne son ampleur à la marque de papier à cigarettes JOB créée par son père. La protection juridique du dépôt de brevet, en le garantissant de la concurrence, a eu pour effet d’enrichir considérablement la descendance de Jean Bardou. Son développement se poursuit de nos jours dans la multinationale Républic technologie.
-Par ailleurs, Pierre Bardou fut un bâtisseur : il commanda une série de châteaux à l'architecte danois Viggo Dorph-Petersen[1],[2] 
+Par ailleurs, Pierre Bardou fut un bâtisseur : il commanda une série de châteaux à l'architecte danois Viggo Dorph-Petersen, 
 Il lui commanda alors : 
 Le Château de Valmy; 
 Le Château d'Aubiry;
 Le Château du Parc Ducup.
 Il est inhumé au cimetière Saint-Martin de Perpignan.
-Une rose est baptisée de son nom en 1887 par Gilbert Nabonnand, sous le nom de 'Bardou Job'[3],[4].
+Une rose est baptisée de son nom en 1887 par Gilbert Nabonnand, sous le nom de 'Bardou Job',.
 </t>
         </is>
       </c>
